--- a/data/trans_orig/IP07C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7C451F-46A9-47B3-93C1-F6F96F8E80C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0175BC49-5B9C-407C-A2D8-CE732919DE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E72CB022-C155-4674-B151-DA4A9947E782}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37795707-A93E-426A-868F-C16DE1623E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="692">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -97,22 +97,19 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>32,29%</t>
+    <t>34,23%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>33,49%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -121,25 +118,25 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>38,88%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -148,1975 +145,1975 @@
     <t>80,45%</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>19,84%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D75BC3D-9FD6-4977-A632-3D34DDB2E899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEEB350-7A5D-48EA-BBD1-34F4DB4DBB70}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2787,16 +2784,16 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -2805,13 +2802,13 @@
         <v>1643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2820,13 +2817,13 @@
         <v>6220</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2835,19 +2832,19 @@
         <v>7863</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>13</v>
@@ -2856,13 +2853,13 @@
         <v>10041</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -2871,13 +2868,13 @@
         <v>5579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -2886,13 +2883,13 @@
         <v>15620</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2904,13 @@
         <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -2922,13 +2919,13 @@
         <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -2937,18 +2934,18 @@
         <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2966,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2975,13 +2972,13 @@
         <v>616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2990,13 +2987,13 @@
         <v>616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3026,13 +3023,13 @@
         <v>616</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3041,13 +3038,13 @@
         <v>616</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3059,13 @@
         <v>14925</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3077,13 +3074,13 @@
         <v>6516</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -3092,19 +3089,19 @@
         <v>21441</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>15</v>
@@ -3113,13 +3110,13 @@
         <v>9307</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3128,13 +3125,13 @@
         <v>13420</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3143,19 +3140,19 @@
         <v>22728</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <v>47</v>
@@ -3164,13 +3161,13 @@
         <v>30536</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -3179,13 +3176,13 @@
         <v>22991</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -3194,13 +3191,13 @@
         <v>53527</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3212,13 @@
         <v>54768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -3230,13 +3227,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -3245,18 +3242,18 @@
         <v>98929</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3265,13 @@
         <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3283,13 +3280,13 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3298,13 +3295,13 @@
         <v>1321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3316,13 @@
         <v>680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3334,13 +3331,13 @@
         <v>3233</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3349,13 +3346,13 @@
         <v>3913</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3367,13 @@
         <v>9879</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -3385,13 +3382,13 @@
         <v>9235</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3400,19 +3397,19 @@
         <v>19114</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <v>23</v>
@@ -3421,13 +3418,13 @@
         <v>15043</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -3436,13 +3433,13 @@
         <v>17001</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -3451,19 +3448,19 @@
         <v>32043</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>99</v>
@@ -3472,13 +3469,13 @@
         <v>65162</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -3487,13 +3484,13 @@
         <v>68532</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>206</v>
@@ -3502,13 +3499,13 @@
         <v>133694</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3520,13 @@
         <v>91431</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -3538,13 +3535,13 @@
         <v>98654</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7">
         <v>294</v>
@@ -3553,18 +3550,18 @@
         <v>190085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3576,13 +3573,13 @@
         <v>632</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3597,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3606,13 +3603,13 @@
         <v>632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3648,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3663,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3675,13 @@
         <v>9756</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -3693,13 +3690,13 @@
         <v>8802</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -3708,19 +3705,19 @@
         <v>18558</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -3729,13 +3726,13 @@
         <v>10821</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -3744,13 +3741,13 @@
         <v>11636</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -3759,19 +3756,19 @@
         <v>22457</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>64</v>
@@ -3780,13 +3777,13 @@
         <v>40168</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -3795,13 +3792,13 @@
         <v>35215</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -3810,13 +3807,13 @@
         <v>75383</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3828,13 @@
         <v>61377</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>91</v>
@@ -3846,13 +3843,13 @@
         <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>188</v>
@@ -3861,18 +3858,18 @@
         <v>117031</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3884,13 +3881,13 @@
         <v>1339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3905,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3914,13 +3911,13 @@
         <v>1339</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3932,13 @@
         <v>1395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3950,13 +3947,13 @@
         <v>2305</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3965,13 +3962,13 @@
         <v>3700</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3983,13 @@
         <v>11177</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -4001,13 +3998,13 @@
         <v>10669</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -4016,19 +4013,19 @@
         <v>21845</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
         <v>16</v>
@@ -4037,13 +4034,13 @@
         <v>11372</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -4052,13 +4049,13 @@
         <v>13977</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -4067,19 +4064,19 @@
         <v>25349</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <v>91</v>
@@ -4088,13 +4085,13 @@
         <v>62273</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -4103,13 +4100,13 @@
         <v>51359</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>158</v>
@@ -4118,13 +4115,13 @@
         <v>113633</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4136,13 @@
         <v>87555</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -4154,13 +4151,13 @@
         <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" s="7">
         <v>229</v>
@@ -4169,13 +4166,13 @@
         <v>165865</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,7 +4189,7 @@
         <v>2638</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>198</v>
@@ -4273,13 +4270,13 @@
         <v>8229</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4291,13 @@
         <v>46533</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>56</v>
@@ -4309,13 +4306,13 @@
         <v>36765</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>125</v>
@@ -4324,19 +4321,19 @@
         <v>83298</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
         <v>73</v>
@@ -4345,13 +4342,13 @@
         <v>48185</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H37" s="7">
         <v>93</v>
@@ -4360,13 +4357,13 @@
         <v>62254</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>166</v>
@@ -4375,19 +4372,19 @@
         <v>110439</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>314</v>
@@ -4396,13 +4393,13 @@
         <v>208180</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>271</v>
@@ -4411,13 +4408,13 @@
         <v>183676</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>585</v>
@@ -4426,13 +4423,13 @@
         <v>391856</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4444,13 @@
         <v>307611</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="7">
         <v>431</v>
@@ -4462,13 +4459,13 @@
         <v>290119</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="7">
         <v>894</v>
@@ -4477,18 +4474,18 @@
         <v>597731</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4509,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DC3B24-5B44-4E53-9108-186F099AE953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8058D4F2-8395-45A6-AF96-A175B4AB4970}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4526,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,13 +4645,13 @@
         <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4663,13 +4660,13 @@
         <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4720,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4732,13 @@
         <v>3002</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4750,13 +4747,13 @@
         <v>2484</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4765,19 +4762,19 @@
         <v>5486</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -4786,13 +4783,13 @@
         <v>2425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4801,10 +4798,10 @@
         <v>2656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>258</v>
@@ -4828,7 +4825,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -4888,13 +4885,13 @@
         <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4903,13 +4900,13 @@
         <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4918,18 +4915,18 @@
         <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4947,7 +4944,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4962,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4971,13 +4968,13 @@
         <v>839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4989,13 @@
         <v>1891</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5007,13 +5004,13 @@
         <v>2232</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5022,13 +5019,13 @@
         <v>4123</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5040,13 @@
         <v>5876</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5058,13 +5055,13 @@
         <v>7300</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -5073,19 +5070,19 @@
         <v>13176</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>22</v>
@@ -5094,7 +5091,7 @@
         <v>14958</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>294</v>
@@ -5127,16 +5124,16 @@
         <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <v>49</v>
@@ -5145,13 +5142,13 @@
         <v>33923</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -5160,13 +5157,13 @@
         <v>29731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5175,13 +5172,13 @@
         <v>63653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5193,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -5211,13 +5208,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -5226,18 +5223,18 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5249,13 +5246,13 @@
         <v>3390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5264,13 +5261,13 @@
         <v>3157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5279,13 +5276,13 @@
         <v>6547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5297,13 @@
         <v>4085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5315,13 +5312,13 @@
         <v>5555</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5330,13 +5327,13 @@
         <v>9640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5348,13 @@
         <v>17926</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -5369,10 +5366,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -5381,19 +5378,19 @@
         <v>28839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <v>21</v>
@@ -5402,13 +5399,13 @@
         <v>13812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5417,13 +5414,13 @@
         <v>25832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -5432,19 +5429,19 @@
         <v>39643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>83</v>
@@ -5453,13 +5450,13 @@
         <v>55954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -5468,13 +5465,13 @@
         <v>52382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -5483,13 +5480,13 @@
         <v>108335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5501,13 @@
         <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7">
         <v>148</v>
@@ -5519,13 +5516,13 @@
         <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7">
         <v>290</v>
@@ -5534,18 +5531,18 @@
         <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5557,13 +5554,13 @@
         <v>3442</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5572,13 +5569,13 @@
         <v>930</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -5587,13 +5584,13 @@
         <v>4372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5605,13 @@
         <v>2733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5623,13 +5620,13 @@
         <v>595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5638,13 +5635,13 @@
         <v>3328</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5656,13 @@
         <v>9128</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -5674,13 +5671,13 @@
         <v>9897</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -5689,19 +5686,19 @@
         <v>19024</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -5710,13 +5707,13 @@
         <v>10821</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5725,13 +5722,13 @@
         <v>14635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -5740,19 +5737,19 @@
         <v>25456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>67</v>
@@ -5761,13 +5758,13 @@
         <v>42958</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -5776,13 +5773,13 @@
         <v>39110</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>127</v>
@@ -5791,13 +5788,13 @@
         <v>82068</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5809,13 @@
         <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -5827,13 +5824,13 @@
         <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>209</v>
@@ -5842,18 +5839,18 @@
         <v>134248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5865,13 +5862,13 @@
         <v>823</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5880,13 +5877,13 @@
         <v>2920</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5895,13 +5892,13 @@
         <v>3743</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5913,13 @@
         <v>2972</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5931,13 +5928,13 @@
         <v>3362</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5946,13 +5943,13 @@
         <v>6334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5964,13 @@
         <v>18018</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -5982,13 +5979,13 @@
         <v>14987</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -5997,19 +5994,19 @@
         <v>33006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -6018,13 +6015,13 @@
         <v>19314</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -6033,13 +6030,13 @@
         <v>17228</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -6048,19 +6045,19 @@
         <v>36542</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <v>63</v>
@@ -6069,13 +6066,13 @@
         <v>47259</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>423</v>
+        <v>116</v>
       </c>
       <c r="H32" s="7">
         <v>61</v>
@@ -6084,13 +6081,13 @@
         <v>47228</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M32" s="7">
         <v>124</v>
@@ -6099,13 +6096,13 @@
         <v>94487</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6117,13 @@
         <v>88387</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="7">
         <v>110</v>
@@ -6135,13 +6132,13 @@
         <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" s="7">
         <v>231</v>
@@ -6150,13 +6147,13 @@
         <v>174112</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6170,13 @@
         <v>8494</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -6188,13 +6185,13 @@
         <v>7767</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>434</v>
+        <v>204</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -6203,13 +6200,13 @@
         <v>16261</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>437</v>
+        <v>318</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,10 +6221,10 @@
         <v>11681</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>440</v>
+        <v>124</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>441</v>
@@ -6239,7 +6236,7 @@
         <v>11743</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>442</v>
@@ -6257,10 +6254,10 @@
         <v>444</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,7 +6272,7 @@
         <v>53950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>447</v>
@@ -6311,13 +6308,13 @@
         <v>453</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>54</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
         <v>90</v>
@@ -6326,13 +6323,13 @@
         <v>61330</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -6341,13 +6338,13 @@
         <v>73259</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>106</v>
+        <v>458</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M37" s="7">
         <v>196</v>
@@ -6356,19 +6353,19 @@
         <v>134589</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>272</v>
@@ -6377,13 +6374,13 @@
         <v>189157</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H38" s="7">
         <v>246</v>
@@ -6392,13 +6389,13 @@
         <v>173825</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M38" s="7">
         <v>518</v>
@@ -6407,13 +6404,13 @@
         <v>362982</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6425,13 @@
         <v>324612</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="7">
         <v>444</v>
@@ -6443,13 +6440,13 @@
         <v>312174</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="7">
         <v>916</v>
@@ -6458,18 +6455,18 @@
         <v>636786</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6490,7 +6487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CDD6F-8297-4185-BF78-63E3A40F8C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B56CE2-2CED-460D-A8CA-36E86EDF33FC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6507,7 +6504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6635,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6650,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6677,13 @@
         <v>1023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6695,13 +6692,13 @@
         <v>1023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6713,13 @@
         <v>1047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6731,13 +6728,13 @@
         <v>2952</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>479</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6746,19 +6743,19 @@
         <v>4000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -6767,10 +6764,10 @@
         <v>4383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>485</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>486</v>
@@ -6782,13 +6779,13 @@
         <v>2039</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>487</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6797,19 +6794,19 @@
         <v>6422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -6818,13 +6815,13 @@
         <v>7777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -6833,13 +6830,13 @@
         <v>6709</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6848,13 +6845,13 @@
         <v>14485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6866,13 @@
         <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6884,13 +6881,13 @@
         <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -6899,18 +6896,18 @@
         <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6922,13 +6919,13 @@
         <v>1575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6937,10 +6934,10 @@
         <v>1941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>504</v>
@@ -6958,7 +6955,7 @@
         <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6970,13 @@
         <v>4539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6988,10 +6985,10 @@
         <v>4771</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>511</v>
@@ -7060,13 +7057,13 @@
         <v>522</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>18</v>
@@ -7075,13 +7072,13 @@
         <v>13979</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -7090,13 +7087,13 @@
         <v>11150</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7105,19 +7102,19 @@
         <v>25129</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <v>37</v>
@@ -7126,13 +7123,13 @@
         <v>28558</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -7141,13 +7138,13 @@
         <v>35102</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -7156,13 +7153,13 @@
         <v>63660</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7174,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -7192,13 +7189,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7207,18 +7204,18 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7230,13 +7227,13 @@
         <v>1932</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7260,13 +7257,13 @@
         <v>5027</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7278,13 @@
         <v>7232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7296,13 +7293,13 @@
         <v>12587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -7311,13 +7308,13 @@
         <v>19819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>553</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,7 +7371,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
@@ -7398,7 +7395,7 @@
         <v>19641</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>568</v>
@@ -7413,7 +7410,7 @@
         <v>48476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>570</v>
@@ -7425,7 +7422,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>72</v>
@@ -7449,13 +7446,13 @@
         <v>51923</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -7464,13 +7461,13 @@
         <v>101847</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7482,13 @@
         <v>103385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -7500,13 +7497,13 @@
         <v>102332</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7">
         <v>304</v>
@@ -7515,18 +7512,18 @@
         <v>205718</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7538,13 +7535,13 @@
         <v>588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7553,13 +7550,13 @@
         <v>1253</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>474</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7568,13 +7565,13 @@
         <v>1841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7586,13 @@
         <v>1669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7604,13 +7601,13 @@
         <v>1003</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7619,13 +7616,13 @@
         <v>2672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>588</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7637,13 @@
         <v>6826</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7655,13 +7652,13 @@
         <v>5912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -7670,19 +7667,19 @@
         <v>12738</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>20</v>
@@ -7691,13 +7688,13 @@
         <v>15414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -7706,13 +7703,13 @@
         <v>16787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -7721,19 +7718,19 @@
         <v>32201</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>71</v>
@@ -7742,13 +7739,13 @@
         <v>50124</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -7757,13 +7754,13 @@
         <v>44955</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -7772,13 +7769,13 @@
         <v>95079</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>40</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7790,13 @@
         <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>108</v>
@@ -7808,13 +7805,13 @@
         <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>212</v>
@@ -7823,18 +7820,18 @@
         <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7846,13 +7843,13 @@
         <v>1557</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7861,13 +7858,13 @@
         <v>2832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7876,13 +7873,13 @@
         <v>4389</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7894,13 @@
         <v>3892</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>622</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -7912,13 +7909,13 @@
         <v>6753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -7927,13 +7924,13 @@
         <v>10645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>322</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7945,13 @@
         <v>10501</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>227</v>
+        <v>628</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -7963,13 +7960,13 @@
         <v>14130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>632</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -7978,19 +7975,19 @@
         <v>24631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
         <v>36</v>
@@ -7999,13 +7996,13 @@
         <v>26224</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -8014,13 +8011,13 @@
         <v>17255</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>408</v>
+        <v>638</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -8029,19 +8026,19 @@
         <v>43479</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <v>77</v>
@@ -8050,13 +8047,13 @@
         <v>57354</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
@@ -8065,13 +8062,13 @@
         <v>62285</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="M32" s="7">
         <v>156</v>
@@ -8080,13 +8077,13 @@
         <v>119639</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8098,13 @@
         <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="7">
         <v>134</v>
@@ -8116,13 +8113,13 @@
         <v>103255</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" s="7">
         <v>269</v>
@@ -8131,13 +8128,13 @@
         <v>202783</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8151,13 @@
         <v>5652</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>322</v>
+        <v>543</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -8169,13 +8166,13 @@
         <v>9121</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>358</v>
+        <v>655</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>657</v>
+        <v>93</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -8184,13 +8181,13 @@
         <v>14773</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>659</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8202,13 @@
         <v>17332</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -8220,13 +8217,13 @@
         <v>26137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M35" s="7">
         <v>62</v>
@@ -8235,13 +8232,13 @@
         <v>43469</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>507</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8253,13 @@
         <v>43020</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H36" s="7">
         <v>60</v>
@@ -8271,13 +8268,13 @@
         <v>41398</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>504</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M36" s="7">
         <v>120</v>
@@ -8286,19 +8283,19 @@
         <v>84418</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
         <v>121</v>
@@ -8307,13 +8304,13 @@
         <v>88835</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H37" s="7">
         <v>97</v>
@@ -8322,13 +8319,13 @@
         <v>66871</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -8337,19 +8334,19 @@
         <v>155706</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>266</v>
@@ -8358,28 +8355,28 @@
         <v>193737</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="H38" s="7">
         <v>282</v>
       </c>
       <c r="I38" s="7">
-        <v>200975</v>
+        <v>200974</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="M38" s="7">
         <v>548</v>
@@ -8388,13 +8385,13 @@
         <v>394711</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,28 +8406,28 @@
         <v>348577</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="7">
         <v>491</v>
       </c>
       <c r="I39" s="7">
-        <v>344502</v>
+        <v>344501</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="7">
         <v>970</v>
@@ -8439,18 +8436,18 @@
         <v>693078</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
